--- a/отпуск.xlsx
+++ b/отпуск.xlsx
@@ -21,6 +21,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>свой др</t>
+  </si>
+  <si>
+    <t>др ани</t>
+  </si>
+  <si>
+    <t>нг</t>
+  </si>
+  <si>
+    <t>др любимого</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,12 +87,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -357,45 +375,100 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45860</v>
+      </c>
+      <c r="E2">
+        <f>(SUM(_xlfn.DAYS(B2,A2),1))</f>
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45880</v>
       </c>
-      <c r="B2" s="1">
-        <v>45898</v>
-      </c>
-      <c r="E2">
-        <f>_xlfn.DAYS(B2,A2)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>45894</v>
+      </c>
+      <c r="E3">
+        <f>(SUM(_xlfn.DAYS(B3,A3),1))</f>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45957</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45961</v>
+      </c>
+      <c r="E4">
+        <f>(SUM(_xlfn.DAYS(B4,A4),1))</f>
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B5" s="1">
+        <v>46022</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8">
         <f>E1-SUM(E2:E7)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
